--- a/biology/Zoologie/Chino_santandereano/Chino_santandereano.xlsx
+++ b/biology/Zoologie/Chino_santandereano/Chino_santandereano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La chino santandereano est une race bovine originaire de Colombie.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Géographique et étymologique
-Elle provient du département de Santander qui lui a donné son nom[1].
-Historique
-Elle descend de bovins de diverses races espagnoles débarqués en Colombie dès le XVIe siècle dans les ports de Carthagène des Indes et Santa Marta.
+          <t>Géographique et étymologique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle provient du département de Santander qui lui a donné son nom.
 </t>
         </is>
       </c>
@@ -543,12 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Morphologie</t>
+          <t>Origine</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle porte une robe rouge avec toutes les nuances du froment clair au rouge sombre[1].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle descend de bovins de diverses races espagnoles débarqués en Colombie dès le XVIe siècle dans les ports de Carthagène des Indes et Santa Marta.
 </t>
         </is>
       </c>
@@ -574,10 +595,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Aptitudes</t>
+          <t>Morphologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle porte une robe rouge avec toutes les nuances du froment clair au rouge sombre.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,10 +628,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Effectif</t>
+          <t>Aptitudes</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,10 +656,40 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Effectif</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chino_santandereano</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chino_santandereano</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
